--- a/Pythonscripts/testdatas/transaction_flow.xlsx
+++ b/Pythonscripts/testdatas/transaction_flow.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9555" tabRatio="664"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="9555" tabRatio="664"/>
   </bookViews>
   <sheets>
     <sheet name="流水账信息" sheetId="1" r:id="rId1"/>
     <sheet name="销售流水格式说明" sheetId="2" r:id="rId2"/>
     <sheet name="采购流水格式说明" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>单据编号</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>aaRYX00000001</t>
-  </si>
-  <si>
-    <t>南京盛锦合进出口贸易有限公司</t>
   </si>
   <si>
     <t>应付</t>
@@ -269,18 +266,15 @@
   <si>
     <t>采购商品的信息，如产品编号、数量。</t>
   </si>
+  <si>
+    <t>重庆宗申巴贝锐拖拉机制造有限公司</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,141 +338,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
@@ -492,8 +351,14 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,7 +367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,194 +377,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="41">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1111,245 +790,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1543,7 +986,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1553,58 +996,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="注释" xfId="11" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
-    <cellStyle name="标题" xfId="15" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
-    <cellStyle name="输出" xfId="22" builtinId="21"/>
-    <cellStyle name="计算" xfId="23" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
-    <cellStyle name="汇总" xfId="28" builtinId="25"/>
-    <cellStyle name="好" xfId="29" builtinId="26"/>
-    <cellStyle name="适中" xfId="30" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00996633"/>
+      <color rgb="FF996633"/>
     </mruColors>
   </colors>
 </styleSheet>
@@ -1896,17 +1295,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="2" max="2" width="31.75" customWidth="1"/>
@@ -1917,7 +1316,7 @@
     <col min="7" max="7" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="57" customFormat="1" ht="36.95" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="57" customFormat="1" ht="36.950000000000003" customHeight="1">
       <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
@@ -1940,15 +1339,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:7">
+    <row r="2" spans="1:7" ht="17.25">
       <c r="A2" s="62" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="62" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>9</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -1958,284 +1357,218 @@
       </c>
       <c r="F2" s="65"/>
       <c r="G2" s="62" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" spans="1:7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25">
       <c r="A3" s="62"/>
-      <c r="B3"/>
       <c r="C3" s="62"/>
-      <c r="D3"/>
       <c r="E3" s="64"/>
       <c r="G3" s="62"/>
     </row>
-    <row r="4" ht="17.25" spans="1:7">
+    <row r="4" spans="1:7" ht="17.25">
       <c r="A4" s="62"/>
-      <c r="B4"/>
       <c r="C4" s="62"/>
-      <c r="D4"/>
       <c r="E4" s="64"/>
       <c r="G4" s="62"/>
     </row>
-    <row r="5" ht="17.25" spans="1:7">
+    <row r="5" spans="1:7" ht="17.25">
       <c r="A5" s="62"/>
-      <c r="B5"/>
       <c r="C5" s="62"/>
-      <c r="D5"/>
       <c r="E5" s="64"/>
       <c r="G5" s="62"/>
     </row>
-    <row r="6" ht="17.25" spans="1:7">
+    <row r="6" spans="1:7" ht="17.25">
       <c r="A6" s="62"/>
-      <c r="B6"/>
       <c r="C6" s="62"/>
-      <c r="D6"/>
       <c r="E6" s="64"/>
       <c r="G6" s="62"/>
     </row>
-    <row r="7" ht="17.25" spans="1:7">
+    <row r="7" spans="1:7" ht="17.25">
       <c r="A7" s="62"/>
-      <c r="B7"/>
       <c r="C7" s="62"/>
-      <c r="D7"/>
       <c r="E7" s="64"/>
       <c r="G7" s="62"/>
     </row>
-    <row r="8" ht="17.25" spans="1:7">
+    <row r="8" spans="1:7" ht="17.25">
       <c r="A8" s="62"/>
-      <c r="B8"/>
       <c r="C8" s="62"/>
-      <c r="D8"/>
       <c r="E8" s="64"/>
       <c r="G8" s="62"/>
     </row>
-    <row r="9" ht="17.25" spans="1:7">
+    <row r="9" spans="1:7" ht="17.25">
       <c r="A9" s="62"/>
-      <c r="B9"/>
       <c r="C9" s="62"/>
-      <c r="D9"/>
       <c r="E9" s="64"/>
       <c r="G9" s="62"/>
     </row>
-    <row r="10" ht="17.25" spans="1:7">
+    <row r="10" spans="1:7" ht="17.25">
       <c r="A10" s="62"/>
-      <c r="B10"/>
       <c r="C10" s="62"/>
-      <c r="D10"/>
       <c r="E10" s="64"/>
       <c r="G10" s="62"/>
     </row>
-    <row r="11" ht="17.25" spans="1:7">
+    <row r="11" spans="1:7" ht="17.25">
       <c r="A11" s="62"/>
-      <c r="B11"/>
       <c r="C11" s="62"/>
-      <c r="D11"/>
       <c r="E11" s="64"/>
       <c r="G11" s="62"/>
     </row>
-    <row r="12" ht="17.25" spans="1:7">
+    <row r="12" spans="1:7" ht="17.25">
       <c r="A12" s="62"/>
-      <c r="B12"/>
       <c r="C12" s="62"/>
-      <c r="D12"/>
       <c r="E12" s="64"/>
       <c r="G12" s="62"/>
     </row>
-    <row r="13" ht="17.25" spans="1:7">
+    <row r="13" spans="1:7" ht="17.25">
       <c r="A13" s="62"/>
-      <c r="B13"/>
       <c r="C13" s="62"/>
-      <c r="D13"/>
       <c r="E13" s="64"/>
       <c r="G13" s="62"/>
     </row>
-    <row r="14" ht="17.25" spans="1:7">
+    <row r="14" spans="1:7" ht="17.25">
       <c r="A14" s="62"/>
-      <c r="B14"/>
       <c r="C14" s="62"/>
-      <c r="D14"/>
       <c r="E14" s="64"/>
       <c r="G14" s="62"/>
     </row>
-    <row r="15" ht="17.25" spans="1:7">
+    <row r="15" spans="1:7" ht="17.25">
       <c r="A15" s="62"/>
-      <c r="B15"/>
       <c r="C15" s="62"/>
-      <c r="D15"/>
       <c r="E15" s="64"/>
       <c r="G15" s="62"/>
     </row>
-    <row r="16" ht="17.25" spans="1:7">
+    <row r="16" spans="1:7" ht="17.25">
       <c r="A16" s="62"/>
-      <c r="B16"/>
       <c r="C16" s="62"/>
-      <c r="D16"/>
       <c r="E16" s="64"/>
       <c r="G16" s="62"/>
     </row>
-    <row r="17" ht="17.25" spans="1:7">
+    <row r="17" spans="1:7" ht="17.25">
       <c r="A17" s="62"/>
-      <c r="B17"/>
       <c r="C17" s="62"/>
-      <c r="D17"/>
       <c r="E17" s="64"/>
       <c r="G17" s="62"/>
     </row>
-    <row r="18" ht="17.25" spans="1:7">
+    <row r="18" spans="1:7" ht="17.25">
       <c r="A18" s="62"/>
-      <c r="B18"/>
       <c r="C18" s="62"/>
-      <c r="D18"/>
       <c r="E18" s="64"/>
       <c r="G18" s="62"/>
     </row>
-    <row r="19" ht="17.25" spans="1:7">
+    <row r="19" spans="1:7" ht="17.25">
       <c r="A19" s="62"/>
-      <c r="B19"/>
       <c r="C19" s="62"/>
-      <c r="D19"/>
       <c r="E19" s="64"/>
       <c r="G19" s="62"/>
     </row>
-    <row r="20" ht="17.25" spans="1:7">
+    <row r="20" spans="1:7" ht="17.25">
       <c r="A20" s="62"/>
-      <c r="B20"/>
       <c r="C20" s="62"/>
-      <c r="D20"/>
       <c r="E20" s="64"/>
       <c r="G20" s="62"/>
     </row>
-    <row r="21" ht="17.25" spans="1:7">
+    <row r="21" spans="1:7" ht="17.25">
       <c r="A21" s="62"/>
-      <c r="B21"/>
       <c r="C21" s="62"/>
-      <c r="D21"/>
       <c r="E21" s="64"/>
       <c r="G21" s="62"/>
     </row>
-    <row r="22" ht="17.25" spans="1:7">
+    <row r="22" spans="1:7" ht="17.25">
       <c r="A22" s="62"/>
-      <c r="B22"/>
       <c r="C22" s="62"/>
-      <c r="D22"/>
       <c r="E22" s="64"/>
       <c r="G22" s="62"/>
     </row>
-    <row r="23" ht="17.25" spans="1:7">
+    <row r="23" spans="1:7" ht="17.25">
       <c r="A23" s="62"/>
-      <c r="B23"/>
       <c r="C23" s="62"/>
-      <c r="D23"/>
       <c r="E23" s="64"/>
       <c r="G23" s="62"/>
     </row>
-    <row r="24" ht="17.25" spans="1:7">
+    <row r="24" spans="1:7" ht="17.25">
       <c r="A24" s="62"/>
-      <c r="B24"/>
       <c r="C24" s="62"/>
-      <c r="D24"/>
       <c r="E24" s="64"/>
       <c r="G24" s="62"/>
     </row>
-    <row r="25" ht="17.25" spans="1:7">
+    <row r="25" spans="1:7" ht="17.25">
       <c r="A25" s="62"/>
-      <c r="B25"/>
       <c r="C25" s="62"/>
-      <c r="D25"/>
       <c r="E25" s="64"/>
       <c r="G25" s="62"/>
     </row>
-    <row r="26" ht="17.25" spans="1:7">
+    <row r="26" spans="1:7" ht="17.25">
       <c r="A26" s="62"/>
-      <c r="B26"/>
       <c r="C26" s="62"/>
-      <c r="D26"/>
       <c r="E26" s="64"/>
       <c r="G26" s="62"/>
     </row>
-    <row r="27" ht="17.25" spans="1:7">
+    <row r="27" spans="1:7" ht="17.25">
       <c r="A27" s="62"/>
-      <c r="B27"/>
       <c r="C27" s="62"/>
-      <c r="D27"/>
       <c r="E27" s="64"/>
       <c r="G27" s="62"/>
     </row>
-    <row r="28" ht="17.25" spans="1:7">
+    <row r="28" spans="1:7" ht="17.25">
       <c r="A28" s="62"/>
-      <c r="B28"/>
       <c r="C28" s="62"/>
-      <c r="D28"/>
       <c r="E28" s="64"/>
       <c r="G28" s="62"/>
     </row>
-    <row r="29" ht="17.25" spans="1:7">
+    <row r="29" spans="1:7" ht="17.25">
       <c r="A29" s="62"/>
-      <c r="B29"/>
       <c r="C29" s="62"/>
-      <c r="D29"/>
       <c r="E29" s="64"/>
       <c r="G29" s="62"/>
     </row>
-    <row r="30" ht="17.25" spans="1:7">
+    <row r="30" spans="1:7" ht="17.25">
       <c r="A30" s="62"/>
-      <c r="B30"/>
       <c r="C30" s="62"/>
-      <c r="D30"/>
       <c r="E30" s="64"/>
       <c r="G30" s="62"/>
     </row>
-    <row r="31" ht="17.25" spans="1:7">
+    <row r="31" spans="1:7" ht="17.25">
       <c r="A31" s="62"/>
-      <c r="B31"/>
       <c r="C31" s="62"/>
-      <c r="D31"/>
       <c r="E31" s="64"/>
       <c r="G31" s="62"/>
     </row>
-    <row r="32" ht="17.25" spans="1:7">
+    <row r="32" spans="1:7" ht="17.25">
       <c r="A32" s="62"/>
-      <c r="B32"/>
       <c r="C32" s="62"/>
-      <c r="D32"/>
       <c r="E32" s="64"/>
       <c r="G32" s="62"/>
     </row>
-    <row r="33" ht="17.25" spans="1:7">
+    <row r="33" spans="1:7" ht="17.25">
       <c r="A33" s="62"/>
-      <c r="B33"/>
       <c r="C33" s="62"/>
-      <c r="D33"/>
       <c r="E33" s="64"/>
       <c r="G33" s="62"/>
     </row>
-    <row r="34" ht="17.25" spans="1:7">
+    <row r="34" spans="1:7" ht="17.25">
       <c r="A34" s="62"/>
-      <c r="B34"/>
       <c r="C34" s="62"/>
-      <c r="D34"/>
       <c r="E34" s="64"/>
       <c r="G34" s="62"/>
     </row>
-    <row r="35" ht="17.25" spans="1:7">
+    <row r="35" spans="1:7" ht="17.25">
       <c r="A35" s="62"/>
-      <c r="B35"/>
       <c r="C35" s="62"/>
-      <c r="D35"/>
       <c r="E35" s="64"/>
       <c r="G35" s="62"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor theme="9" tint="0.599993896298105"/>
+    <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:D15"/>
   <sheetViews>
@@ -2243,7 +1576,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.125" style="39" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="40" customWidth="1"/>
@@ -2253,34 +1586,34 @@
     <col min="6" max="16384" width="7" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12" customHeight="1"/>
-    <row r="2" s="37" customFormat="1" ht="25.5" customHeight="1" spans="2:4">
+    <row r="1" spans="2:4" ht="12" customHeight="1"/>
+    <row r="2" spans="2:4" s="37" customFormat="1" ht="25.5" customHeight="1">
       <c r="B2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="41"/>
       <c r="D2" s="42"/>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="D3" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="33" spans="2:4">
+    </row>
+    <row r="4" spans="2:4" ht="33">
       <c r="B4" s="46" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="48" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -2288,43 +1621,43 @@
         <v>1</v>
       </c>
       <c r="C5" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" ht="82.5" spans="2:4">
+    </row>
+    <row r="6" spans="2:4" ht="82.5">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="D7" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="50" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" ht="66" spans="2:4">
+    </row>
+    <row r="8" spans="2:4" ht="66">
       <c r="B8" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="50" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -2332,10 +1665,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -2343,58 +1676,58 @@
         <v>6</v>
       </c>
       <c r="C10" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="27" t="s">
+    </row>
+    <row r="11" spans="2:4" s="37" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B11" s="54" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="11" s="37" customFormat="1" ht="22.5" customHeight="1" spans="2:4">
-      <c r="B11" s="54" t="s">
-        <v>30</v>
       </c>
       <c r="C11" s="55"/>
       <c r="D11" s="56"/>
     </row>
-    <row r="12" s="38" customFormat="1" spans="2:4">
+    <row r="12" spans="2:4" s="38" customFormat="1">
       <c r="B12" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" s="38" customFormat="1" spans="2:4">
+    <row r="13" spans="2:4" s="38" customFormat="1">
       <c r="B13" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" s="38" customFormat="1" spans="2:4">
+    <row r="14" spans="2:4" s="38" customFormat="1">
       <c r="B14" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
     </row>
-    <row r="15" s="38" customFormat="1" ht="17.25" spans="2:4">
+    <row r="15" spans="2:4" s="38" customFormat="1">
       <c r="B15" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="36"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor theme="4" tint="0.599993896298105"/>
+    <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:D17"/>
   <sheetViews>
@@ -2402,7 +1735,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="4" customWidth="1"/>
@@ -2411,36 +1744,36 @@
     <col min="5" max="16384" width="7" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12" customHeight="1" spans="2:2">
+    <row r="1" spans="2:4" ht="12" customHeight="1">
       <c r="B1" s="6"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="2:4">
+    <row r="2" spans="2:4" s="1" customFormat="1" ht="22.5" customHeight="1">
       <c r="B2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="33" spans="2:4">
+    </row>
+    <row r="4" spans="2:4" ht="33">
       <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -2448,43 +1781,43 @@
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" ht="82.5" spans="2:4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="82.5">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>38</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" ht="66" spans="2:4">
+    </row>
+    <row r="8" spans="2:4" ht="66">
       <c r="B8" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -2492,10 +1825,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -2503,51 +1836,51 @@
         <v>6</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="22.5" customHeight="1">
+      <c r="B11" s="28" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="2:4">
-      <c r="B11" s="28" t="s">
-        <v>30</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" s="2" customFormat="1" spans="2:4">
+    <row r="12" spans="2:4" s="2" customFormat="1">
       <c r="B12" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" s="2" customFormat="1" spans="2:4">
+    <row r="13" spans="2:4" s="2" customFormat="1">
       <c r="B13" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" s="2" customFormat="1" spans="2:4">
+    <row r="14" spans="2:4" s="2" customFormat="1">
       <c r="B14" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
     </row>
-    <row r="15" s="3" customFormat="1" ht="17.25" spans="2:4">
+    <row r="15" spans="2:4" s="3" customFormat="1">
       <c r="B15" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="36"/>
     </row>
     <row r="17" s="4" customFormat="1"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Pythonscripts/testdatas/transaction_flow.xlsx
+++ b/Pythonscripts/testdatas/transaction_flow.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="9555" tabRatio="664"/>
   </bookViews>
   <sheets>
-    <sheet name="流水账信息" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="销售流水格式说明" sheetId="2" r:id="rId2"/>
     <sheet name="采购流水格式说明" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -27,9 +27,6 @@
     <t>单据类型</t>
   </si>
   <si>
-    <t>单据金额（单位：元）</t>
-  </si>
-  <si>
     <t>单据起始时间</t>
   </si>
   <si>
@@ -37,9 +34,6 @@
   </si>
   <si>
     <t>单据内容</t>
-  </si>
-  <si>
-    <t>aaRYX00000001</t>
   </si>
   <si>
     <t>应付</t>
@@ -267,7 +261,15 @@
     <t>采购商品的信息，如产品编号、数量。</t>
   </si>
   <si>
-    <t>重庆宗申巴贝锐拖拉机制造有限公司</t>
+    <t xml:space="preserve"> 重庆代伦机械有限公司</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据金额（单位：元）</t>
+  </si>
+  <si>
+    <t>aaRYX15242</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -331,13 +333,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
@@ -354,6 +349,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -986,13 +989,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1302,7 +1305,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1326,240 +1329,240 @@
       <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="F1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="G1" s="60" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="60" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25">
       <c r="A2" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="63" t="s">
         <v>42</v>
       </c>
+      <c r="B2" s="65" t="s">
+        <v>40</v>
+      </c>
       <c r="C2" s="62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
-      <c r="E2" s="64">
-        <v>42485</v>
-      </c>
-      <c r="F2" s="65"/>
+      <c r="E2" s="63">
+        <v>42495</v>
+      </c>
+      <c r="F2" s="64"/>
       <c r="G2" s="62" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25">
       <c r="A3" s="62"/>
       <c r="C3" s="62"/>
-      <c r="E3" s="64"/>
+      <c r="E3" s="63"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:7" ht="17.25">
       <c r="A4" s="62"/>
       <c r="C4" s="62"/>
-      <c r="E4" s="64"/>
+      <c r="E4" s="63"/>
       <c r="G4" s="62"/>
     </row>
     <row r="5" spans="1:7" ht="17.25">
       <c r="A5" s="62"/>
       <c r="C5" s="62"/>
-      <c r="E5" s="64"/>
+      <c r="E5" s="63"/>
       <c r="G5" s="62"/>
     </row>
     <row r="6" spans="1:7" ht="17.25">
       <c r="A6" s="62"/>
       <c r="C6" s="62"/>
-      <c r="E6" s="64"/>
+      <c r="E6" s="63"/>
       <c r="G6" s="62"/>
     </row>
     <row r="7" spans="1:7" ht="17.25">
       <c r="A7" s="62"/>
       <c r="C7" s="62"/>
-      <c r="E7" s="64"/>
+      <c r="E7" s="63"/>
       <c r="G7" s="62"/>
     </row>
     <row r="8" spans="1:7" ht="17.25">
       <c r="A8" s="62"/>
       <c r="C8" s="62"/>
-      <c r="E8" s="64"/>
+      <c r="E8" s="63"/>
       <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:7" ht="17.25">
       <c r="A9" s="62"/>
       <c r="C9" s="62"/>
-      <c r="E9" s="64"/>
+      <c r="E9" s="63"/>
       <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:7" ht="17.25">
       <c r="A10" s="62"/>
       <c r="C10" s="62"/>
-      <c r="E10" s="64"/>
+      <c r="E10" s="63"/>
       <c r="G10" s="62"/>
     </row>
     <row r="11" spans="1:7" ht="17.25">
       <c r="A11" s="62"/>
       <c r="C11" s="62"/>
-      <c r="E11" s="64"/>
+      <c r="E11" s="63"/>
       <c r="G11" s="62"/>
     </row>
     <row r="12" spans="1:7" ht="17.25">
       <c r="A12" s="62"/>
       <c r="C12" s="62"/>
-      <c r="E12" s="64"/>
+      <c r="E12" s="63"/>
       <c r="G12" s="62"/>
     </row>
     <row r="13" spans="1:7" ht="17.25">
       <c r="A13" s="62"/>
       <c r="C13" s="62"/>
-      <c r="E13" s="64"/>
+      <c r="E13" s="63"/>
       <c r="G13" s="62"/>
     </row>
     <row r="14" spans="1:7" ht="17.25">
       <c r="A14" s="62"/>
       <c r="C14" s="62"/>
-      <c r="E14" s="64"/>
+      <c r="E14" s="63"/>
       <c r="G14" s="62"/>
     </row>
     <row r="15" spans="1:7" ht="17.25">
       <c r="A15" s="62"/>
       <c r="C15" s="62"/>
-      <c r="E15" s="64"/>
+      <c r="E15" s="63"/>
       <c r="G15" s="62"/>
     </row>
     <row r="16" spans="1:7" ht="17.25">
       <c r="A16" s="62"/>
       <c r="C16" s="62"/>
-      <c r="E16" s="64"/>
+      <c r="E16" s="63"/>
       <c r="G16" s="62"/>
     </row>
     <row r="17" spans="1:7" ht="17.25">
       <c r="A17" s="62"/>
       <c r="C17" s="62"/>
-      <c r="E17" s="64"/>
+      <c r="E17" s="63"/>
       <c r="G17" s="62"/>
     </row>
     <row r="18" spans="1:7" ht="17.25">
       <c r="A18" s="62"/>
       <c r="C18" s="62"/>
-      <c r="E18" s="64"/>
+      <c r="E18" s="63"/>
       <c r="G18" s="62"/>
     </row>
     <row r="19" spans="1:7" ht="17.25">
       <c r="A19" s="62"/>
       <c r="C19" s="62"/>
-      <c r="E19" s="64"/>
+      <c r="E19" s="63"/>
       <c r="G19" s="62"/>
     </row>
     <row r="20" spans="1:7" ht="17.25">
       <c r="A20" s="62"/>
       <c r="C20" s="62"/>
-      <c r="E20" s="64"/>
+      <c r="E20" s="63"/>
       <c r="G20" s="62"/>
     </row>
     <row r="21" spans="1:7" ht="17.25">
       <c r="A21" s="62"/>
       <c r="C21" s="62"/>
-      <c r="E21" s="64"/>
+      <c r="E21" s="63"/>
       <c r="G21" s="62"/>
     </row>
     <row r="22" spans="1:7" ht="17.25">
       <c r="A22" s="62"/>
       <c r="C22" s="62"/>
-      <c r="E22" s="64"/>
+      <c r="E22" s="63"/>
       <c r="G22" s="62"/>
     </row>
     <row r="23" spans="1:7" ht="17.25">
       <c r="A23" s="62"/>
       <c r="C23" s="62"/>
-      <c r="E23" s="64"/>
+      <c r="E23" s="63"/>
       <c r="G23" s="62"/>
     </row>
     <row r="24" spans="1:7" ht="17.25">
       <c r="A24" s="62"/>
       <c r="C24" s="62"/>
-      <c r="E24" s="64"/>
+      <c r="E24" s="63"/>
       <c r="G24" s="62"/>
     </row>
     <row r="25" spans="1:7" ht="17.25">
       <c r="A25" s="62"/>
       <c r="C25" s="62"/>
-      <c r="E25" s="64"/>
+      <c r="E25" s="63"/>
       <c r="G25" s="62"/>
     </row>
     <row r="26" spans="1:7" ht="17.25">
       <c r="A26" s="62"/>
       <c r="C26" s="62"/>
-      <c r="E26" s="64"/>
+      <c r="E26" s="63"/>
       <c r="G26" s="62"/>
     </row>
     <row r="27" spans="1:7" ht="17.25">
       <c r="A27" s="62"/>
       <c r="C27" s="62"/>
-      <c r="E27" s="64"/>
+      <c r="E27" s="63"/>
       <c r="G27" s="62"/>
     </row>
     <row r="28" spans="1:7" ht="17.25">
       <c r="A28" s="62"/>
       <c r="C28" s="62"/>
-      <c r="E28" s="64"/>
+      <c r="E28" s="63"/>
       <c r="G28" s="62"/>
     </row>
     <row r="29" spans="1:7" ht="17.25">
       <c r="A29" s="62"/>
       <c r="C29" s="62"/>
-      <c r="E29" s="64"/>
+      <c r="E29" s="63"/>
       <c r="G29" s="62"/>
     </row>
     <row r="30" spans="1:7" ht="17.25">
       <c r="A30" s="62"/>
       <c r="C30" s="62"/>
-      <c r="E30" s="64"/>
+      <c r="E30" s="63"/>
       <c r="G30" s="62"/>
     </row>
     <row r="31" spans="1:7" ht="17.25">
       <c r="A31" s="62"/>
       <c r="C31" s="62"/>
-      <c r="E31" s="64"/>
+      <c r="E31" s="63"/>
       <c r="G31" s="62"/>
     </row>
     <row r="32" spans="1:7" ht="17.25">
       <c r="A32" s="62"/>
       <c r="C32" s="62"/>
-      <c r="E32" s="64"/>
+      <c r="E32" s="63"/>
       <c r="G32" s="62"/>
     </row>
     <row r="33" spans="1:7" ht="17.25">
       <c r="A33" s="62"/>
       <c r="C33" s="62"/>
-      <c r="E33" s="64"/>
+      <c r="E33" s="63"/>
       <c r="G33" s="62"/>
     </row>
     <row r="34" spans="1:7" ht="17.25">
       <c r="A34" s="62"/>
       <c r="C34" s="62"/>
-      <c r="E34" s="64"/>
+      <c r="E34" s="63"/>
       <c r="G34" s="62"/>
     </row>
     <row r="35" spans="1:7" ht="17.25">
       <c r="A35" s="62"/>
       <c r="C35" s="62"/>
-      <c r="E35" s="64"/>
+      <c r="E35" s="63"/>
       <c r="G35" s="62"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1589,20 +1592,20 @@
     <row r="1" spans="2:4" ht="12" customHeight="1"/>
     <row r="2" spans="2:4" s="37" customFormat="1" ht="25.5" customHeight="1">
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="41"/>
       <c r="D2" s="42"/>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="45" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="33">
@@ -1610,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -1621,10 +1624,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="82.5">
@@ -1632,93 +1635,93 @@
         <v>2</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="50" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="66">
       <c r="B8" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:4" s="37" customFormat="1" ht="22.5" customHeight="1">
       <c r="B11" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="55"/>
       <c r="D11" s="56"/>
     </row>
     <row r="12" spans="2:4" s="38" customFormat="1">
       <c r="B12" s="31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="33"/>
     </row>
     <row r="13" spans="2:4" s="38" customFormat="1">
       <c r="B13" s="31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="33"/>
     </row>
     <row r="14" spans="2:4" s="38" customFormat="1">
       <c r="B14" s="31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
     </row>
     <row r="15" spans="2:4" s="38" customFormat="1">
       <c r="B15" s="34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="36"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1749,20 +1752,20 @@
     </row>
     <row r="2" spans="2:4" s="1" customFormat="1" ht="22.5" customHeight="1">
       <c r="B2" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="33">
@@ -1770,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -1781,10 +1784,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="82.5">
@@ -1792,94 +1795,94 @@
         <v>2</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="66">
       <c r="B8" s="21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="22.5" customHeight="1">
       <c r="B11" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="30"/>
     </row>
     <row r="12" spans="2:4" s="2" customFormat="1">
       <c r="B12" s="31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="33"/>
     </row>
     <row r="13" spans="2:4" s="2" customFormat="1">
       <c r="B13" s="31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="33"/>
     </row>
     <row r="14" spans="2:4" s="2" customFormat="1">
       <c r="B14" s="31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
     </row>
     <row r="15" spans="2:4" s="3" customFormat="1">
       <c r="B15" s="34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="36"/>
     </row>
     <row r="17" s="4" customFormat="1"/>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Pythonscripts/testdatas/transaction_flow.xlsx
+++ b/Pythonscripts/testdatas/transaction_flow.xlsx
@@ -268,7 +268,7 @@
     <t>单据金额（单位：元）</t>
   </si>
   <si>
-    <t>aaRYX15242</t>
+    <t>aaRYX48690</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1356,7 +1356,7 @@
         <v>100</v>
       </c>
       <c r="E2" s="63">
-        <v>42495</v>
+        <v>42496</v>
       </c>
       <c r="F2" s="64"/>
       <c r="G2" s="62" t="s">

--- a/Pythonscripts/testdatas/transaction_flow.xlsx
+++ b/Pythonscripts/testdatas/transaction_flow.xlsx
@@ -10,13 +10,14 @@
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="销售流水格式说明" sheetId="2" r:id="rId2"/>
     <sheet name="采购流水格式说明" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="153">
   <si>
     <t>单据编号</t>
   </si>
@@ -34,12 +35,6 @@
   </si>
   <si>
     <t>单据内容</t>
-  </si>
-  <si>
-    <t>应付</t>
-  </si>
-  <si>
-    <t>陆原测试用</t>
   </si>
   <si>
     <t xml:space="preserve"> 您在供应链中是卖方，请按照以下说明提交销售流水信息</t>
@@ -59,6 +54,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>销售过程中产生的流水的唯一编号。</t>
@@ -69,6 +65,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -79,6 +76,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>若：提交的是销售订单/应收账款/发票，填写销售订单号/应收编号/发票（电子票）编号。</t>
@@ -94,13 +92,106 @@
     <t>填写：采购商（卖方）的签约主体的名称，应与营业执照上的名称一致。</t>
   </si>
   <si>
+    <t>单据金额</t>
+  </si>
+  <si>
+    <t>流水金额。</t>
+  </si>
+  <si>
+    <t>支持两位小数，正数、负数。</t>
+  </si>
+  <si>
+    <t>单据创建的时间。
+若：销售单据（以销售订单/应收账款/发票信息来提交），应填写销售订单生成时间/应收账款立账时间/发票开具时间；
+若：实收单据，应填写实际收到买家支付货款的时间；</t>
+  </si>
+  <si>
+    <t>格式：YYYY/MM/DD。</t>
+  </si>
+  <si>
+    <t>根据贸易合同或者双方约定，买方应付款的截止时间。</t>
+  </si>
+  <si>
+    <t>格式：YYYY/MM/DD（可空）</t>
+  </si>
+  <si>
+    <t>销售商品的信息，如产品编号、数量。</t>
+  </si>
+  <si>
+    <t>格式：支持文本、数字。</t>
+  </si>
+  <si>
+    <t>其他注意事项：</t>
+  </si>
+  <si>
+    <t>1. 请保证提交的数据的正确性，从贵司系统中导出的数据除补充单据类型信息外，其他的信息请勿修改；</t>
+  </si>
+  <si>
+    <t>2. 请不要修改流水账信息表头文字及列表顺序；</t>
+  </si>
+  <si>
+    <t>3. 请不要存在空行，空行以下的数据将导入失败；</t>
+  </si>
+  <si>
+    <t>4. 请将流水账信息置于首个sheet。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 您在供应链中是买方，请按照以下说明提交采购流水信息</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">采购过程中产生的流水的唯一编号。
+</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>若：提交的是采购订单/应付账款/发票，填写采购订单号/应付编号/发票（电子票）编号。</t>
+    </r>
+  </si>
+  <si>
+    <t>填写：供应商（卖方）的签约主体的名称，应与营业执照上的名称一致。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">填写：应付、实付、退货、折让、冲正 。
+注意：
+实付、退货、折让、冲正均应是对“应付”单据后续调整和处理的补充。
+</t>
+  </si>
+  <si>
+    <t>单据创建的时间。
+若：采购单据（以采购订单/应付账款/发票信息来提交），应填写采购订单生成时间/应付账款立账时间/发票开具时间；
+若：实付单据，应填写实际向买家支付货款的时间；</t>
+  </si>
+  <si>
+    <t>格式：YYYY/MM/DD，起始日&lt;到期日。</t>
+  </si>
+  <si>
+    <t>采购商品的信息，如产品编号、数量。</t>
+  </si>
+  <si>
+    <t>单据金额（单位：元）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">填写：销售、实收、退货、折让、冲正 。
+注意：
+实收、退货、折让、冲正均应是对“销售”单据后续调整和处理的补充。
+</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">应根据实际情况进行输入。
 </t>
     </r>
@@ -109,6 +200,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1. 销售：卖货（或提供服务）给买家的单据。</t>
@@ -119,6 +211,7 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -129,96 +222,17 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他类型：
 2. 实收：收到买方付款的单据  3. 退货：退货产生的单据
 4. 折让：折让/价保产生的单据  5. 冲正：修正错误时使用的对一笔交易的反向交易单据</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">填写：销售、实收、退货、折让、冲正 。
-注意：
-实收、退货、折让、冲正均应是对“销售”单据后续调整和处理的补充。
-</t>
-  </si>
-  <si>
-    <t>单据金额</t>
-  </si>
-  <si>
-    <t>流水金额。</t>
-  </si>
-  <si>
-    <t>支持两位小数，正数、负数。</t>
-  </si>
-  <si>
-    <t>单据创建的时间。
-若：销售单据（以销售订单/应收账款/发票信息来提交），应填写销售订单生成时间/应收账款立账时间/发票开具时间；
-若：实收单据，应填写实际收到买家支付货款的时间；</t>
-  </si>
-  <si>
-    <t>格式：YYYY/MM/DD。</t>
-  </si>
-  <si>
-    <t>根据贸易合同或者双方约定，买方应付款的截止时间。</t>
-  </si>
-  <si>
-    <t>格式：YYYY/MM/DD（可空）</t>
-  </si>
-  <si>
-    <t>销售商品的信息，如产品编号、数量。</t>
-  </si>
-  <si>
-    <t>格式：支持文本、数字。</t>
-  </si>
-  <si>
-    <t>其他注意事项：</t>
-  </si>
-  <si>
-    <t>1. 请保证提交的数据的正确性，从贵司系统中导出的数据除补充单据类型信息外，其他的信息请勿修改；</t>
-  </si>
-  <si>
-    <t>2. 请不要修改流水账信息表头文字及列表顺序；</t>
-  </si>
-  <si>
-    <t>3. 请不要存在空行，空行以下的数据将导入失败；</t>
-  </si>
-  <si>
-    <t>4. 请将流水账信息置于首个sheet。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 您在供应链中是买方，请按照以下说明提交采购流水信息</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">采购过程中产生的流水的唯一编号。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>若：提交的是采购订单/应付账款/发票，填写采购订单号/应付编号/发票（电子票）编号。</t>
-    </r>
-  </si>
-  <si>
-    <t>填写：供应商（卖方）的签约主体的名称，应与营业执照上的名称一致。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">应根据实际情况进行输入。
 </t>
     </r>
@@ -227,6 +241,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1. 应付：向卖方采购（或者使用服务）的单据。
@@ -236,47 +251,477 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他类型：
 2. 实付：买方已付款给卖方的单据  3. 退货：退货产生的单据
 4. 折让：折让/价保产生的单据  5. 冲正：修正错误时使用的对一笔交易的反向交易单据</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">填写：应付、实付、退货、折让、冲正 。
-注意：
-实付、退货、折让、冲正均应是对“应付”单据后续调整和处理的补充。
-</t>
-  </si>
-  <si>
-    <t>单据创建的时间。
-若：采购单据（以采购订单/应付账款/发票信息来提交），应填写采购订单生成时间/应付账款立账时间/发票开具时间；
-若：实付单据，应填写实际向买家支付货款的时间；</t>
-  </si>
-  <si>
-    <t>格式：YYYY/MM/DD，起始日&lt;到期日。</t>
-  </si>
-  <si>
-    <t>采购商品的信息，如产品编号、数量。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 重庆代伦机械有限公司</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据金额（单位：元）</t>
-  </si>
-  <si>
-    <t>aaRYX48690</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写：字母、数据及组合，单据编号不能重复。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_document_id</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_document_no</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资金额</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资成本</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>settle_id</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert_id</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_orderid</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>bp_id</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>STL201606300008747</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>STL201606300008753</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>STL201606300008754</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>STL201606300008749</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>STL201606300008750</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>STL201606300008761</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>STL201606300008762</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>STL201606300008756</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>STL201606300008755</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>STL201606300008763</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>STL201606300008745</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>STL201606300008739</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>STL201606300008746</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>STL201606300008738</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>STL201606300008740</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>STL201606300008751</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>STL201606300008748</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>STL201606300008752</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYS20160630003766</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP120160630100459269</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP120160630102115681</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP120160630102115944</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP120160630102116185</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP120160630102116425</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP120160630102116766</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP120160630102117014</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP120160630102117307</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP120160630102117572</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP120160630102117815</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP120160630102118048</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP120160630102118290</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP120160630102118537</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP120160630102118805</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP120160630102119042</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP120160630102119330</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP120160630102119583</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP120160630102119852</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP120160630102120188</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX06301625132</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试链属企业306301051104</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试流水</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX06301625143</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试流水</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX06301625154</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX06301625165</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试链属企业306301051104</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试流水</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX06301625176</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试链属企业306301051104</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX06301625187</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试链属企业306301051104</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX06301625198</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX06301625209</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX063016252110</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX063016252211</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX063016252312</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX063016252413</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX063016252514</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX063016252715</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX063016252816</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX063016252917</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX063016253018</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX063016253119</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX06301625132</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX06301625143</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX06301625154</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX06301625165</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX06301625176</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX06301625187</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX06301625198</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX06301625209</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX063016252110</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX063016252211</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX063016252312</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX063016252413</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX063016252514</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX063016252715</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX063016252816</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX063016252917</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX063016253018</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX063016253119</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD120160630162625772</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD120160630162626009</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD120160630162626235</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD120160630162626442</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD120160630162626659</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD120160630162626870</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD120160630162627103</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD120160630162627315</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD120160630162627553</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD120160630162627764</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD120160630162627996</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD120160630162628202</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD120160630162628430</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD120160630162628634</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD120160630162630799</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD120160630162631014</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD120160630162631236</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD120160630162631462</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,12 +733,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -301,35 +748,41 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF5A4B3D"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -337,6 +790,7 @@
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -344,16 +798,41 @@
       <sz val="10"/>
       <color theme="4"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -799,7 +1278,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -992,10 +1471,16 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1302,10 +1787,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1330,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E1" s="61" t="s">
         <v>3</v>
@@ -1344,227 +1829,369 @@
     </row>
     <row r="2" spans="1:7" ht="17.25">
       <c r="A2" s="62" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
+        <v>90</v>
+      </c>
+      <c r="D2" s="64">
+        <v>150</v>
+      </c>
+      <c r="E2" s="63">
+        <v>42551</v>
+      </c>
+      <c r="F2" s="63"/>
+      <c r="G2" s="62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3">
+        <v>150</v>
+      </c>
+      <c r="E3" s="58">
+        <v>42551</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4" s="58">
+        <v>42551</v>
+      </c>
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5">
+        <v>150</v>
+      </c>
+      <c r="E5" s="58">
+        <v>42551</v>
+      </c>
+      <c r="G5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="63">
-        <v>42496</v>
-      </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="62" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="17.25">
-      <c r="A3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="G3" s="62"/>
-    </row>
-    <row r="4" spans="1:7" ht="17.25">
-      <c r="A4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="E4" s="63"/>
-      <c r="G4" s="62"/>
-    </row>
-    <row r="5" spans="1:7" ht="17.25">
-      <c r="A5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="E5" s="63"/>
-      <c r="G5" s="62"/>
-    </row>
-    <row r="6" spans="1:7" ht="17.25">
-      <c r="A6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="G6" s="62"/>
-    </row>
-    <row r="7" spans="1:7" ht="17.25">
-      <c r="A7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="G7" s="62"/>
-    </row>
-    <row r="8" spans="1:7" ht="17.25">
-      <c r="A8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="E8" s="63"/>
-      <c r="G8" s="62"/>
-    </row>
-    <row r="9" spans="1:7" ht="17.25">
-      <c r="A9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="G9" s="62"/>
-    </row>
-    <row r="10" spans="1:7" ht="17.25">
-      <c r="A10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="G10" s="62"/>
-    </row>
-    <row r="11" spans="1:7" ht="17.25">
-      <c r="A11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="E11" s="63"/>
-      <c r="G11" s="62"/>
-    </row>
-    <row r="12" spans="1:7" ht="17.25">
-      <c r="A12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="E12" s="63"/>
-      <c r="G12" s="62"/>
-    </row>
-    <row r="13" spans="1:7" ht="17.25">
-      <c r="A13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="G13" s="62"/>
-    </row>
-    <row r="14" spans="1:7" ht="17.25">
-      <c r="A14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="G14" s="62"/>
-    </row>
-    <row r="15" spans="1:7" ht="17.25">
-      <c r="A15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="G15" s="62"/>
-    </row>
-    <row r="16" spans="1:7" ht="17.25">
-      <c r="A16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="E16" s="63"/>
-      <c r="G16" s="62"/>
-    </row>
-    <row r="17" spans="1:7" ht="17.25">
-      <c r="A17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="G17" s="62"/>
-    </row>
-    <row r="18" spans="1:7" ht="17.25">
-      <c r="A18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="E18" s="63"/>
-      <c r="G18" s="62"/>
-    </row>
-    <row r="19" spans="1:7" ht="17.25">
-      <c r="A19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="G19" s="62"/>
-    </row>
-    <row r="20" spans="1:7" ht="17.25">
-      <c r="A20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="E20" s="63"/>
-      <c r="G20" s="62"/>
-    </row>
-    <row r="21" spans="1:7" ht="17.25">
-      <c r="A21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="E21" s="63"/>
-      <c r="G21" s="62"/>
-    </row>
-    <row r="22" spans="1:7" ht="17.25">
-      <c r="A22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="E22" s="63"/>
-      <c r="G22" s="62"/>
-    </row>
-    <row r="23" spans="1:7" ht="17.25">
-      <c r="A23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="E23" s="63"/>
-      <c r="G23" s="62"/>
-    </row>
-    <row r="24" spans="1:7" ht="17.25">
-      <c r="A24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="E24" s="63"/>
-      <c r="G24" s="62"/>
-    </row>
-    <row r="25" spans="1:7" ht="17.25">
-      <c r="A25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="E25" s="63"/>
-      <c r="G25" s="62"/>
-    </row>
-    <row r="26" spans="1:7" ht="17.25">
-      <c r="A26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="E26" s="63"/>
-      <c r="G26" s="62"/>
-    </row>
-    <row r="27" spans="1:7" ht="17.25">
-      <c r="A27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="E27" s="63"/>
-      <c r="G27" s="62"/>
-    </row>
-    <row r="28" spans="1:7" ht="17.25">
-      <c r="A28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="E28" s="63"/>
-      <c r="G28" s="62"/>
-    </row>
-    <row r="29" spans="1:7" ht="17.25">
-      <c r="A29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="E29" s="63"/>
-      <c r="G29" s="62"/>
-    </row>
-    <row r="30" spans="1:7" ht="17.25">
-      <c r="A30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="E30" s="63"/>
-      <c r="G30" s="62"/>
-    </row>
-    <row r="31" spans="1:7" ht="17.25">
-      <c r="A31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="E31" s="63"/>
-      <c r="G31" s="62"/>
-    </row>
-    <row r="32" spans="1:7" ht="17.25">
-      <c r="A32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="E32" s="63"/>
-      <c r="G32" s="62"/>
-    </row>
-    <row r="33" spans="1:7" ht="17.25">
-      <c r="A33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="E33" s="63"/>
-      <c r="G33" s="62"/>
-    </row>
-    <row r="34" spans="1:7" ht="17.25">
-      <c r="A34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="E34" s="63"/>
-      <c r="G34" s="62"/>
-    </row>
-    <row r="35" spans="1:7" ht="17.25">
-      <c r="A35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="E35" s="63"/>
-      <c r="G35" s="62"/>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6" s="58">
+        <v>42551</v>
+      </c>
+      <c r="G6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7">
+        <v>150</v>
+      </c>
+      <c r="E7" s="58">
+        <v>42551</v>
+      </c>
+      <c r="G7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8">
+        <v>150</v>
+      </c>
+      <c r="E8" s="58">
+        <v>42551</v>
+      </c>
+      <c r="G8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9">
+        <v>150</v>
+      </c>
+      <c r="E9" s="58">
+        <v>42551</v>
+      </c>
+      <c r="G9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10" s="58">
+        <v>42551</v>
+      </c>
+      <c r="G10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11">
+        <v>150</v>
+      </c>
+      <c r="E11" s="58">
+        <v>42551</v>
+      </c>
+      <c r="G11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12">
+        <v>150</v>
+      </c>
+      <c r="E12" s="58">
+        <v>42551</v>
+      </c>
+      <c r="G12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13">
+        <v>150</v>
+      </c>
+      <c r="E13" s="58">
+        <v>42551</v>
+      </c>
+      <c r="G13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14">
+        <v>150</v>
+      </c>
+      <c r="E14" s="58">
+        <v>42551</v>
+      </c>
+      <c r="G14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15">
+        <v>150</v>
+      </c>
+      <c r="E15" s="58">
+        <v>42551</v>
+      </c>
+      <c r="G15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16">
+        <v>150</v>
+      </c>
+      <c r="E16" s="58">
+        <v>42551</v>
+      </c>
+      <c r="G16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17">
+        <v>150</v>
+      </c>
+      <c r="E17" s="58">
+        <v>42551</v>
+      </c>
+      <c r="G17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18">
+        <v>150</v>
+      </c>
+      <c r="E18" s="58">
+        <v>42551</v>
+      </c>
+      <c r="G18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19">
+        <v>150</v>
+      </c>
+      <c r="E19" s="58">
+        <v>42551</v>
+      </c>
+      <c r="G19" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1576,7 +2203,7 @@
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="16.5"/>
@@ -1592,20 +2219,20 @@
     <row r="1" spans="2:4" ht="12" customHeight="1"/>
     <row r="2" spans="2:4" s="37" customFormat="1" ht="25.5" customHeight="1">
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="41"/>
       <c r="D2" s="42"/>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="45" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="33">
@@ -1613,10 +2240,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -1624,10 +2251,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="82.5">
@@ -1635,21 +2262,21 @@
         <v>2</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="66">
@@ -1657,10 +2284,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -1668,10 +2295,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -1679,43 +2306,43 @@
         <v>5</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:4" s="37" customFormat="1" ht="22.5" customHeight="1">
       <c r="B11" s="54" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" s="55"/>
       <c r="D11" s="56"/>
     </row>
     <row r="12" spans="2:4" s="38" customFormat="1">
       <c r="B12" s="31" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="33"/>
     </row>
     <row r="13" spans="2:4" s="38" customFormat="1">
       <c r="B13" s="31" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="33"/>
     </row>
     <row r="14" spans="2:4" s="38" customFormat="1">
       <c r="B14" s="31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
     </row>
     <row r="15" spans="2:4" s="38" customFormat="1">
       <c r="B15" s="34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="36"/>
@@ -1734,8 +2361,8 @@
   </sheetPr>
   <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="16.5"/>
@@ -1752,20 +2379,20 @@
     </row>
     <row r="2" spans="2:4" s="1" customFormat="1" ht="22.5" customHeight="1">
       <c r="B2" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="33">
@@ -1773,10 +2400,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -1784,10 +2411,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="82.5">
@@ -1795,21 +2422,21 @@
         <v>2</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="66">
@@ -1817,10 +2444,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -1828,10 +2455,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -1839,43 +2466,43 @@
         <v>5</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="22.5" customHeight="1">
       <c r="B11" s="28" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="30"/>
     </row>
     <row r="12" spans="2:4" s="2" customFormat="1">
       <c r="B12" s="31" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="33"/>
     </row>
     <row r="13" spans="2:4" s="2" customFormat="1">
       <c r="B13" s="31" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="33"/>
     </row>
     <row r="14" spans="2:4" s="2" customFormat="1">
       <c r="B14" s="31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
     </row>
     <row r="15" spans="2:4" s="3" customFormat="1">
       <c r="B15" s="34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="36"/>
@@ -1886,4 +2513,480 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="32.875" customWidth="1"/>
+    <col min="2" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="26.125" customWidth="1"/>
+    <col min="8" max="8" width="21.875" customWidth="1"/>
+    <col min="9" max="9" width="22.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2">
+        <v>150</v>
+      </c>
+      <c r="D2">
+        <v>120</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3">
+        <v>150</v>
+      </c>
+      <c r="D3">
+        <v>120</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4">
+        <v>150</v>
+      </c>
+      <c r="D4">
+        <v>120</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5">
+        <v>150</v>
+      </c>
+      <c r="D5">
+        <v>120</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6">
+        <v>150</v>
+      </c>
+      <c r="D6">
+        <v>120</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7">
+        <v>150</v>
+      </c>
+      <c r="D7">
+        <v>120</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8">
+        <v>150</v>
+      </c>
+      <c r="D8">
+        <v>120</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9">
+        <v>150</v>
+      </c>
+      <c r="D9">
+        <v>120</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10">
+        <v>150</v>
+      </c>
+      <c r="D10">
+        <v>120</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11">
+        <v>150</v>
+      </c>
+      <c r="D11">
+        <v>120</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12">
+        <v>150</v>
+      </c>
+      <c r="D12">
+        <v>120</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13">
+        <v>150</v>
+      </c>
+      <c r="D13">
+        <v>120</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14">
+        <v>150</v>
+      </c>
+      <c r="D14">
+        <v>120</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15">
+        <v>150</v>
+      </c>
+      <c r="D15">
+        <v>120</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16">
+        <v>150</v>
+      </c>
+      <c r="D16">
+        <v>120</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17">
+        <v>150</v>
+      </c>
+      <c r="D17">
+        <v>120</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18">
+        <v>150</v>
+      </c>
+      <c r="D18">
+        <v>120</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19">
+        <v>150</v>
+      </c>
+      <c r="D19">
+        <v>120</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Pythonscripts/testdatas/transaction_flow.xlsx
+++ b/Pythonscripts/testdatas/transaction_flow.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="9555" tabRatio="664"/>
@@ -10,13 +10,14 @@
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="销售流水格式说明" sheetId="2" r:id="rId2"/>
     <sheet name="采购流水格式说明" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>单据编号</t>
   </si>
@@ -34,12 +35,6 @@
   </si>
   <si>
     <t>单据内容</t>
-  </si>
-  <si>
-    <t>应付</t>
-  </si>
-  <si>
-    <t>陆原测试用</t>
   </si>
   <si>
     <t xml:space="preserve"> 您在供应链中是卖方，请按照以下说明提交销售流水信息</t>
@@ -59,6 +54,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>销售过程中产生的流水的唯一编号。</t>
@@ -69,6 +65,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -79,6 +76,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>若：提交的是销售订单/应收账款/发票，填写销售订单号/应收编号/发票（电子票）编号。</t>
@@ -94,13 +92,106 @@
     <t>填写：采购商（卖方）的签约主体的名称，应与营业执照上的名称一致。</t>
   </si>
   <si>
+    <t>单据金额</t>
+  </si>
+  <si>
+    <t>流水金额。</t>
+  </si>
+  <si>
+    <t>支持两位小数，正数、负数。</t>
+  </si>
+  <si>
+    <t>单据创建的时间。
+若：销售单据（以销售订单/应收账款/发票信息来提交），应填写销售订单生成时间/应收账款立账时间/发票开具时间；
+若：实收单据，应填写实际收到买家支付货款的时间；</t>
+  </si>
+  <si>
+    <t>格式：YYYY/MM/DD。</t>
+  </si>
+  <si>
+    <t>根据贸易合同或者双方约定，买方应付款的截止时间。</t>
+  </si>
+  <si>
+    <t>格式：YYYY/MM/DD（可空）</t>
+  </si>
+  <si>
+    <t>销售商品的信息，如产品编号、数量。</t>
+  </si>
+  <si>
+    <t>格式：支持文本、数字。</t>
+  </si>
+  <si>
+    <t>其他注意事项：</t>
+  </si>
+  <si>
+    <t>1. 请保证提交的数据的正确性，从贵司系统中导出的数据除补充单据类型信息外，其他的信息请勿修改；</t>
+  </si>
+  <si>
+    <t>2. 请不要修改流水账信息表头文字及列表顺序；</t>
+  </si>
+  <si>
+    <t>3. 请不要存在空行，空行以下的数据将导入失败；</t>
+  </si>
+  <si>
+    <t>4. 请将流水账信息置于首个sheet。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 您在供应链中是买方，请按照以下说明提交采购流水信息</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">采购过程中产生的流水的唯一编号。
+</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>若：提交的是采购订单/应付账款/发票，填写采购订单号/应付编号/发票（电子票）编号。</t>
+    </r>
+  </si>
+  <si>
+    <t>填写：供应商（卖方）的签约主体的名称，应与营业执照上的名称一致。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">填写：应付、实付、退货、折让、冲正 。
+注意：
+实付、退货、折让、冲正均应是对“应付”单据后续调整和处理的补充。
+</t>
+  </si>
+  <si>
+    <t>单据创建的时间。
+若：采购单据（以采购订单/应付账款/发票信息来提交），应填写采购订单生成时间/应付账款立账时间/发票开具时间；
+若：实付单据，应填写实际向买家支付货款的时间；</t>
+  </si>
+  <si>
+    <t>格式：YYYY/MM/DD，起始日&lt;到期日。</t>
+  </si>
+  <si>
+    <t>采购商品的信息，如产品编号、数量。</t>
+  </si>
+  <si>
+    <t>单据金额（单位：元）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">填写：销售、实收、退货、折让、冲正 。
+注意：
+实收、退货、折让、冲正均应是对“销售”单据后续调整和处理的补充。
+</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">应根据实际情况进行输入。
 </t>
     </r>
@@ -109,6 +200,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1. 销售：卖货（或提供服务）给买家的单据。</t>
@@ -119,6 +211,7 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -129,96 +222,17 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他类型：
 2. 实收：收到买方付款的单据  3. 退货：退货产生的单据
 4. 折让：折让/价保产生的单据  5. 冲正：修正错误时使用的对一笔交易的反向交易单据</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">填写：销售、实收、退货、折让、冲正 。
-注意：
-实收、退货、折让、冲正均应是对“销售”单据后续调整和处理的补充。
-</t>
-  </si>
-  <si>
-    <t>单据金额</t>
-  </si>
-  <si>
-    <t>流水金额。</t>
-  </si>
-  <si>
-    <t>支持两位小数，正数、负数。</t>
-  </si>
-  <si>
-    <t>单据创建的时间。
-若：销售单据（以销售订单/应收账款/发票信息来提交），应填写销售订单生成时间/应收账款立账时间/发票开具时间；
-若：实收单据，应填写实际收到买家支付货款的时间；</t>
-  </si>
-  <si>
-    <t>格式：YYYY/MM/DD。</t>
-  </si>
-  <si>
-    <t>根据贸易合同或者双方约定，买方应付款的截止时间。</t>
-  </si>
-  <si>
-    <t>格式：YYYY/MM/DD（可空）</t>
-  </si>
-  <si>
-    <t>销售商品的信息，如产品编号、数量。</t>
-  </si>
-  <si>
-    <t>格式：支持文本、数字。</t>
-  </si>
-  <si>
-    <t>其他注意事项：</t>
-  </si>
-  <si>
-    <t>1. 请保证提交的数据的正确性，从贵司系统中导出的数据除补充单据类型信息外，其他的信息请勿修改；</t>
-  </si>
-  <si>
-    <t>2. 请不要修改流水账信息表头文字及列表顺序；</t>
-  </si>
-  <si>
-    <t>3. 请不要存在空行，空行以下的数据将导入失败；</t>
-  </si>
-  <si>
-    <t>4. 请将流水账信息置于首个sheet。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 您在供应链中是买方，请按照以下说明提交采购流水信息</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">采购过程中产生的流水的唯一编号。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>若：提交的是采购订单/应付账款/发票，填写采购订单号/应付编号/发票（电子票）编号。</t>
-    </r>
-  </si>
-  <si>
-    <t>填写：供应商（卖方）的签约主体的名称，应与营业执照上的名称一致。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">应根据实际情况进行输入。
 </t>
     </r>
@@ -227,6 +241,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1. 应付：向卖方采购（或者使用服务）的单据。
@@ -236,39 +251,101 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他类型：
 2. 实付：买方已付款给卖方的单据  3. 退货：退货产生的单据
 4. 折让：折让/价保产生的单据  5. 冲正：修正错误时使用的对一笔交易的反向交易单据</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">填写：应付、实付、退货、折让、冲正 。
-注意：
-实付、退货、折让、冲正均应是对“应付”单据后续调整和处理的补充。
-</t>
-  </si>
-  <si>
-    <t>单据创建的时间。
-若：采购单据（以采购订单/应付账款/发票信息来提交），应填写采购订单生成时间/应付账款立账时间/发票开具时间；
-若：实付单据，应填写实际向买家支付货款的时间；</t>
-  </si>
-  <si>
-    <t>格式：YYYY/MM/DD，起始日&lt;到期日。</t>
-  </si>
-  <si>
-    <t>采购商品的信息，如产品编号、数量。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 重庆代伦机械有限公司</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>单据金额（单位：元）</t>
-  </si>
-  <si>
-    <t>aaRYX48690</t>
+    <t>填写：字母、数据及组合，单据编号不能重复。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_document_id</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_document_no</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资金额</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资成本</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert_id</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试流水</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试流水</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP120160621153908721</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP120160621153908965</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>GD00000008</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市三晋光大货运服务有限公司</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD120160617163242422</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD120160617163256046</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD120160617163256168</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>GD00000016</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>GD00000017</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>GD00000017</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -276,7 +353,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,12 +365,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -301,35 +380,41 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF5A4B3D"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -337,6 +422,7 @@
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -344,16 +430,41 @@
       <sz val="10"/>
       <color theme="4"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -799,7 +910,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -992,10 +1103,16 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1302,10 +1419,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1330,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E1" s="61" t="s">
         <v>3</v>
@@ -1344,227 +1461,69 @@
     </row>
     <row r="2" spans="1:7" ht="17.25">
       <c r="A2" s="62" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
+        <v>46</v>
+      </c>
+      <c r="D2" s="64">
+        <v>800</v>
       </c>
       <c r="E2" s="63">
-        <v>42496</v>
-      </c>
-      <c r="F2" s="64"/>
+        <v>42542</v>
+      </c>
+      <c r="F2" s="63"/>
       <c r="G2" s="62" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25">
-      <c r="A3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="G3" s="62"/>
+      <c r="A3" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>1600</v>
+      </c>
+      <c r="E3" s="58">
+        <v>42542</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="17.25">
-      <c r="A4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="E4" s="63"/>
-      <c r="G4" s="62"/>
-    </row>
-    <row r="5" spans="1:7" ht="17.25">
-      <c r="A5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="E5" s="63"/>
-      <c r="G5" s="62"/>
-    </row>
-    <row r="6" spans="1:7" ht="17.25">
-      <c r="A6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="G6" s="62"/>
-    </row>
-    <row r="7" spans="1:7" ht="17.25">
-      <c r="A7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="G7" s="62"/>
-    </row>
-    <row r="8" spans="1:7" ht="17.25">
-      <c r="A8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="E8" s="63"/>
-      <c r="G8" s="62"/>
-    </row>
-    <row r="9" spans="1:7" ht="17.25">
-      <c r="A9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="G9" s="62"/>
-    </row>
-    <row r="10" spans="1:7" ht="17.25">
-      <c r="A10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="G10" s="62"/>
-    </row>
-    <row r="11" spans="1:7" ht="17.25">
-      <c r="A11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="E11" s="63"/>
-      <c r="G11" s="62"/>
-    </row>
-    <row r="12" spans="1:7" ht="17.25">
-      <c r="A12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="E12" s="63"/>
-      <c r="G12" s="62"/>
-    </row>
-    <row r="13" spans="1:7" ht="17.25">
-      <c r="A13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="G13" s="62"/>
-    </row>
-    <row r="14" spans="1:7" ht="17.25">
-      <c r="A14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="G14" s="62"/>
-    </row>
-    <row r="15" spans="1:7" ht="17.25">
-      <c r="A15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="G15" s="62"/>
-    </row>
-    <row r="16" spans="1:7" ht="17.25">
-      <c r="A16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="E16" s="63"/>
-      <c r="G16" s="62"/>
-    </row>
-    <row r="17" spans="1:7" ht="17.25">
-      <c r="A17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="G17" s="62"/>
-    </row>
-    <row r="18" spans="1:7" ht="17.25">
-      <c r="A18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="E18" s="63"/>
-      <c r="G18" s="62"/>
-    </row>
-    <row r="19" spans="1:7" ht="17.25">
-      <c r="A19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="G19" s="62"/>
-    </row>
-    <row r="20" spans="1:7" ht="17.25">
-      <c r="A20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="E20" s="63"/>
-      <c r="G20" s="62"/>
-    </row>
-    <row r="21" spans="1:7" ht="17.25">
-      <c r="A21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="E21" s="63"/>
-      <c r="G21" s="62"/>
-    </row>
-    <row r="22" spans="1:7" ht="17.25">
-      <c r="A22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="E22" s="63"/>
-      <c r="G22" s="62"/>
-    </row>
-    <row r="23" spans="1:7" ht="17.25">
-      <c r="A23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="E23" s="63"/>
-      <c r="G23" s="62"/>
-    </row>
-    <row r="24" spans="1:7" ht="17.25">
-      <c r="A24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="E24" s="63"/>
-      <c r="G24" s="62"/>
-    </row>
-    <row r="25" spans="1:7" ht="17.25">
-      <c r="A25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="E25" s="63"/>
-      <c r="G25" s="62"/>
-    </row>
-    <row r="26" spans="1:7" ht="17.25">
-      <c r="A26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="E26" s="63"/>
-      <c r="G26" s="62"/>
-    </row>
-    <row r="27" spans="1:7" ht="17.25">
-      <c r="A27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="E27" s="63"/>
-      <c r="G27" s="62"/>
-    </row>
-    <row r="28" spans="1:7" ht="17.25">
-      <c r="A28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="E28" s="63"/>
-      <c r="G28" s="62"/>
-    </row>
-    <row r="29" spans="1:7" ht="17.25">
-      <c r="A29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="E29" s="63"/>
-      <c r="G29" s="62"/>
-    </row>
-    <row r="30" spans="1:7" ht="17.25">
-      <c r="A30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="E30" s="63"/>
-      <c r="G30" s="62"/>
-    </row>
-    <row r="31" spans="1:7" ht="17.25">
-      <c r="A31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="E31" s="63"/>
-      <c r="G31" s="62"/>
-    </row>
-    <row r="32" spans="1:7" ht="17.25">
-      <c r="A32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="E32" s="63"/>
-      <c r="G32" s="62"/>
-    </row>
-    <row r="33" spans="1:7" ht="17.25">
-      <c r="A33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="E33" s="63"/>
-      <c r="G33" s="62"/>
-    </row>
-    <row r="34" spans="1:7" ht="17.25">
-      <c r="A34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="E34" s="63"/>
-      <c r="G34" s="62"/>
-    </row>
-    <row r="35" spans="1:7" ht="17.25">
-      <c r="A35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="E35" s="63"/>
-      <c r="G35" s="62"/>
+      <c r="A4" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>1700</v>
+      </c>
+      <c r="E4" s="58">
+        <v>42542</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1576,7 +1535,7 @@
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="16.5"/>
@@ -1592,20 +1551,20 @@
     <row r="1" spans="2:4" ht="12" customHeight="1"/>
     <row r="2" spans="2:4" s="37" customFormat="1" ht="25.5" customHeight="1">
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="41"/>
       <c r="D2" s="42"/>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="45" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="33">
@@ -1613,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -1624,10 +1583,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="82.5">
@@ -1635,21 +1594,21 @@
         <v>2</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="66">
@@ -1657,10 +1616,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -1668,10 +1627,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -1679,43 +1638,43 @@
         <v>5</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:4" s="37" customFormat="1" ht="22.5" customHeight="1">
       <c r="B11" s="54" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" s="55"/>
       <c r="D11" s="56"/>
     </row>
     <row r="12" spans="2:4" s="38" customFormat="1">
       <c r="B12" s="31" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="33"/>
     </row>
     <row r="13" spans="2:4" s="38" customFormat="1">
       <c r="B13" s="31" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="33"/>
     </row>
     <row r="14" spans="2:4" s="38" customFormat="1">
       <c r="B14" s="31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
     </row>
     <row r="15" spans="2:4" s="38" customFormat="1">
       <c r="B15" s="34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="36"/>
@@ -1734,8 +1693,8 @@
   </sheetPr>
   <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="16.5"/>
@@ -1752,20 +1711,20 @@
     </row>
     <row r="2" spans="2:4" s="1" customFormat="1" ht="22.5" customHeight="1">
       <c r="B2" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="33">
@@ -1773,10 +1732,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -1784,10 +1743,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="82.5">
@@ -1795,21 +1754,21 @@
         <v>2</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="66">
@@ -1817,10 +1776,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -1828,10 +1787,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -1839,43 +1798,43 @@
         <v>5</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="22.5" customHeight="1">
       <c r="B11" s="28" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="30"/>
     </row>
     <row r="12" spans="2:4" s="2" customFormat="1">
       <c r="B12" s="31" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="33"/>
     </row>
     <row r="13" spans="2:4" s="2" customFormat="1">
       <c r="B13" s="31" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="33"/>
     </row>
     <row r="14" spans="2:4" s="2" customFormat="1">
       <c r="B14" s="31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
     </row>
     <row r="15" spans="2:4" s="3" customFormat="1">
       <c r="B15" s="34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="36"/>
@@ -1886,4 +1845,105 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="32.875" customWidth="1"/>
+    <col min="2" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25">
+      <c r="A2" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="64">
+        <v>800</v>
+      </c>
+      <c r="D2">
+        <v>640</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25">
+      <c r="A3" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>1600</v>
+      </c>
+      <c r="D3">
+        <v>1280</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25">
+      <c r="A4" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <v>1700</v>
+      </c>
+      <c r="D4">
+        <v>1360</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Pythonscripts/testdatas/transaction_flow.xlsx
+++ b/Pythonscripts/testdatas/transaction_flow.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="9555" tabRatio="664"/>
@@ -12,12 +12,12 @@
     <sheet name="采购流水格式说明" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="81">
   <si>
     <t>单据编号</t>
   </si>
@@ -289,23 +289,7 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>应付</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>测试流水</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>应付</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试流水</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>应付</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -321,10 +305,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>广州市三晋光大货运服务有限公司</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>LD120160617163242422</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -345,7 +325,107 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>GD00000017</t>
+    <t>应付</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX07041939342</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市三晋光大货运服务有限公司</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试流水</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX07041939353</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX07041939374</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试流水</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX07041939385</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市三晋光大货运服务有限公司</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试流水</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX07041939396</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX07041939407</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX07041939418</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX07041939429</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX070419394310</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX070419394411</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX070419394512</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX070419394613</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX070419394714</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX070419394815</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX070419394916</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX070419395017</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX070419395118</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaRYX070419395219</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1419,7 +1499,7 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -1461,63 +1541,363 @@
     </row>
     <row r="2" spans="1:7" ht="17.25">
       <c r="A2" s="62" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D2" s="64">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="E2" s="63">
-        <v>42542</v>
+        <v>42555</v>
       </c>
       <c r="F2" s="63"/>
       <c r="G2" s="62" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25">
       <c r="A3" s="62" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D3">
-        <v>1600</v>
+        <v>150</v>
       </c>
       <c r="E3" s="58">
-        <v>42542</v>
+        <v>42555</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25">
       <c r="A4" s="62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D4">
-        <v>1700</v>
+        <v>150</v>
       </c>
       <c r="E4" s="58">
-        <v>42542</v>
+        <v>42555</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5">
+        <v>150</v>
+      </c>
+      <c r="E5" s="58">
+        <v>42555</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6" s="58">
+        <v>42555</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>150</v>
+      </c>
+      <c r="E7" s="58">
+        <v>42555</v>
+      </c>
+      <c r="G7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8">
+        <v>150</v>
+      </c>
+      <c r="E8" s="58">
+        <v>42555</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9">
+        <v>150</v>
+      </c>
+      <c r="E9" s="58">
+        <v>42555</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10" s="58">
+        <v>42555</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11">
+        <v>150</v>
+      </c>
+      <c r="E11" s="58">
+        <v>42555</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12">
+        <v>150</v>
+      </c>
+      <c r="E12" s="58">
+        <v>42555</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13">
+        <v>150</v>
+      </c>
+      <c r="E13" s="58">
+        <v>42555</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14">
+        <v>150</v>
+      </c>
+      <c r="E14" s="58">
+        <v>42555</v>
+      </c>
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15">
+        <v>150</v>
+      </c>
+      <c r="E15" s="58">
+        <v>42555</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16">
+        <v>150</v>
+      </c>
+      <c r="E16" s="58">
+        <v>42555</v>
+      </c>
+      <c r="G16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17">
+        <v>150</v>
+      </c>
+      <c r="E17" s="58">
+        <v>42555</v>
+      </c>
+      <c r="G17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18">
+        <v>150</v>
+      </c>
+      <c r="E18" s="58">
+        <v>42555</v>
+      </c>
+      <c r="G18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19">
+        <v>150</v>
+      </c>
+      <c r="E19" s="58">
+        <v>42555</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1886,10 +2266,10 @@
     </row>
     <row r="2" spans="1:6" ht="17.25">
       <c r="A2" s="65" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C2" s="64">
         <v>800</v>
@@ -1901,15 +2281,15 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25">
       <c r="A3" s="65" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C3">
         <v>1600</v>
@@ -1921,15 +2301,15 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25">
       <c r="A4" s="65" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>1700</v>

--- a/Pythonscripts/testdatas/transaction_flow.xlsx
+++ b/Pythonscripts/testdatas/transaction_flow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="9555" tabRatio="664"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="9555" tabRatio="664" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -1501,7 +1501,7 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2231,8 +2231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
